--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/WISCONSIN_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/WISCONSIN_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1217"/>
+  <dimension ref="A1:D1211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C9">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C31">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C49">
@@ -1031,7 +1031,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C50">
@@ -1335,7 +1335,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C73">
@@ -1348,7 +1348,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C74">
@@ -1478,7 +1478,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C84">
@@ -1517,7 +1517,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C87">
@@ -1704,7 +1704,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C101">
@@ -1826,7 +1826,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C110">
@@ -1852,7 +1852,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1909,7 +1909,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C116">
@@ -2226,7 +2226,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C140">
@@ -2434,12 +2434,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C156">
@@ -2478,7 +2478,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C159">
@@ -2491,7 +2491,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C160">
@@ -2569,7 +2569,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C166">
@@ -2699,7 +2699,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C176">
@@ -2764,7 +2764,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C181">
@@ -2777,7 +2777,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C182">
@@ -2907,7 +2907,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C192">
@@ -2972,7 +2972,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C197">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C198">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C207">
@@ -3206,7 +3206,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C215">
@@ -3284,7 +3284,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C221">
@@ -3297,7 +3297,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C222">
@@ -3310,7 +3310,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C223">
@@ -3421,7 +3421,7 @@
         <v>825</v>
       </c>
       <c r="D231">
-        <v>0.09304161497688057</v>
+        <v>0.09304161497688056</v>
       </c>
     </row>
     <row r="232">
@@ -3458,7 +3458,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C234">
@@ -3471,7 +3471,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C235">
@@ -3484,7 +3484,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C236">
@@ -3575,7 +3575,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C243">
@@ -3614,7 +3614,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C246">
@@ -3705,7 +3705,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C253">
@@ -3757,7 +3757,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C257">
@@ -3783,7 +3783,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C259">
@@ -3809,7 +3809,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C261">
@@ -3822,7 +3822,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C262">
@@ -3848,7 +3848,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C264">
@@ -3900,7 +3900,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C268">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C274">
@@ -4009,7 +4009,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C276">
@@ -4022,7 +4022,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C277">
@@ -4061,7 +4061,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C280">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C282">
@@ -4126,7 +4126,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C285">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C286">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C287">
@@ -4165,7 +4165,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C288">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C292">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C293">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C296">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C297">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C302">
@@ -4360,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C303">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C304">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C305">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C306">
@@ -4568,7 +4568,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C319">
@@ -4594,7 +4594,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C321">
@@ -4620,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C323">
@@ -4646,7 +4646,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C325">
@@ -4685,7 +4685,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C328">
@@ -4833,7 +4833,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C339">
@@ -4859,7 +4859,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C341">
@@ -4885,7 +4885,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C343">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C346">
@@ -4963,7 +4963,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C349">
@@ -4989,7 +4989,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C351">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C352">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C355">
@@ -5093,7 +5093,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C359">
@@ -5106,7 +5106,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C360">
@@ -5119,7 +5119,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C361">
@@ -5197,7 +5197,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C367">
@@ -5210,7 +5210,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C368">
@@ -5249,7 +5249,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C371">
@@ -5262,7 +5262,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C372">
@@ -5306,7 +5306,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C375">
@@ -5345,7 +5345,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C378">
@@ -5358,7 +5358,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C379">
@@ -5371,7 +5371,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C380">
@@ -5514,7 +5514,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C391">
@@ -5566,7 +5566,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C395">
@@ -5579,7 +5579,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C396">
@@ -5618,7 +5618,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C399">
@@ -5670,7 +5670,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C403">
@@ -5800,7 +5800,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C413">
@@ -5826,7 +5826,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C415">
@@ -5852,7 +5852,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C417">
@@ -5891,7 +5891,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C420">
@@ -5904,7 +5904,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C421">
@@ -5982,7 +5982,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C427">
@@ -6008,7 +6008,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C429">
@@ -6112,7 +6112,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C437">
@@ -6125,7 +6125,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C438">
@@ -6164,7 +6164,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C441">
@@ -6177,7 +6177,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C442">
@@ -6216,7 +6216,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C445">
@@ -6229,7 +6229,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C446">
@@ -6262,7 +6262,7 @@
         <v>812</v>
       </c>
       <c r="D448">
-        <v>0.09157550468027517</v>
+        <v>0.09157550468027516</v>
       </c>
     </row>
     <row r="449">
@@ -7105,7 +7105,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C513">
@@ -7383,7 +7383,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C534">
@@ -7474,7 +7474,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C541">
@@ -7526,7 +7526,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C545">
@@ -7578,7 +7578,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C549">
@@ -7591,7 +7591,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C550">
@@ -7700,7 +7700,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C558">
@@ -7739,7 +7739,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C561">
@@ -8030,7 +8030,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C583">
@@ -8113,7 +8113,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C589">
@@ -8152,7 +8152,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C592">
@@ -8178,7 +8178,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Capulálpam de Méndez</t>
+          <t>Capulálpam De Méndez</t>
         </is>
       </c>
       <c r="C594">
@@ -8191,7 +8191,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C595">
@@ -8204,7 +8204,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C596">
@@ -8217,7 +8217,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C597">
@@ -8230,7 +8230,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C598">
@@ -8256,7 +8256,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C600">
@@ -8269,7 +8269,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C601">
@@ -8282,7 +8282,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C602">
@@ -8295,7 +8295,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C603">
@@ -8308,7 +8308,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C604">
@@ -8334,7 +8334,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C606">
@@ -8347,7 +8347,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C607">
@@ -8438,7 +8438,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C614">
@@ -8464,7 +8464,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C616">
@@ -8503,7 +8503,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C619">
@@ -8516,7 +8516,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C620">
@@ -8529,7 +8529,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C621">
@@ -8789,7 +8789,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C641">
@@ -8971,7 +8971,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C655">
@@ -8984,7 +8984,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C656">
@@ -9335,7 +9335,7 @@
     <row r="683">
       <c r="B683" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C683">
@@ -9452,7 +9452,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C692">
@@ -9582,7 +9582,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C702">
@@ -9790,7 +9790,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C718">
@@ -9933,7 +9933,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C729">
@@ -10193,7 +10193,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C749">
@@ -10479,7 +10479,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C771">
@@ -10596,7 +10596,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C780">
@@ -10609,7 +10609,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C781">
@@ -10622,7 +10622,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C782">
@@ -10635,7 +10635,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C783">
@@ -10648,7 +10648,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C784">
@@ -10661,7 +10661,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C785">
@@ -10674,7 +10674,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C786">
@@ -10687,7 +10687,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C787">
@@ -10726,7 +10726,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C790">
@@ -10739,7 +10739,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C791">
@@ -10752,7 +10752,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C792">
@@ -10778,7 +10778,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C794">
@@ -10791,7 +10791,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C795">
@@ -10804,7 +10804,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C796">
@@ -10830,7 +10830,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C798">
@@ -10965,7 +10965,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C808">
@@ -10991,7 +10991,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C810">
@@ -11160,7 +11160,7 @@
     <row r="823">
       <c r="B823" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C823">
@@ -11173,7 +11173,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C824">
@@ -11225,7 +11225,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C828">
@@ -11251,7 +11251,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C830">
@@ -11342,7 +11342,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C837">
@@ -11407,7 +11407,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C842">
@@ -11589,7 +11589,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C856">
@@ -11602,7 +11602,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C857">
@@ -11654,7 +11654,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C861">
@@ -11732,7 +11732,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C867">
@@ -11745,7 +11745,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C868">
@@ -11810,7 +11810,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C873">
@@ -11875,7 +11875,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C878">
@@ -12153,7 +12153,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C899">
@@ -12179,7 +12179,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C901">
@@ -12205,7 +12205,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C903">
@@ -12218,7 +12218,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C904">
@@ -12244,7 +12244,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C906">
@@ -12270,7 +12270,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C908">
@@ -12397,7 +12397,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C917">
@@ -12449,7 +12449,7 @@
     <row r="921">
       <c r="B921" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C921">
@@ -12579,7 +12579,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C931">
@@ -12670,7 +12670,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C938">
@@ -12709,7 +12709,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C941">
@@ -12722,7 +12722,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C942">
@@ -12735,7 +12735,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C943">
@@ -13457,7 +13457,7 @@
     <row r="997">
       <c r="B997" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C997">
@@ -13553,7 +13553,7 @@
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1004">
@@ -13566,7 +13566,7 @@
     <row r="1005">
       <c r="B1005" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1005">
@@ -13657,7 +13657,7 @@
     <row r="1012">
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1012">
@@ -13683,7 +13683,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1014">
@@ -13735,7 +13735,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1018">
@@ -13961,7 +13961,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1035">
@@ -14013,7 +14013,7 @@
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1039">
@@ -14104,7 +14104,7 @@
     <row r="1046">
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1046">
@@ -14130,7 +14130,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1048">
@@ -14195,7 +14195,7 @@
     <row r="1053">
       <c r="B1053" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1053">
@@ -14325,7 +14325,7 @@
     <row r="1063">
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1063">
@@ -14468,7 +14468,7 @@
     <row r="1074">
       <c r="B1074" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1074">
@@ -14481,7 +14481,7 @@
     <row r="1075">
       <c r="B1075" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1075">
@@ -14507,7 +14507,7 @@
     <row r="1077">
       <c r="B1077" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1077">
@@ -14520,7 +14520,7 @@
     <row r="1078">
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1078">
@@ -14533,7 +14533,7 @@
     <row r="1079">
       <c r="B1079" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1079">
@@ -14663,7 +14663,7 @@
     <row r="1089">
       <c r="B1089" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1089">
@@ -14702,7 +14702,7 @@
     <row r="1092">
       <c r="B1092" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1092">
@@ -14741,7 +14741,7 @@
     <row r="1095">
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1095">
@@ -14793,7 +14793,7 @@
     <row r="1099">
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1099">
@@ -14988,7 +14988,7 @@
     <row r="1114">
       <c r="B1114" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1114">
@@ -15027,7 +15027,7 @@
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1117">
@@ -15118,7 +15118,7 @@
     <row r="1124">
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1124">
@@ -15157,7 +15157,7 @@
     <row r="1127">
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1127">
@@ -15196,7 +15196,7 @@
     <row r="1130">
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1130">
@@ -15482,7 +15482,7 @@
     <row r="1152">
       <c r="B1152" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1152">
@@ -15843,7 +15843,7 @@
     <row r="1179">
       <c r="B1179" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1179">
@@ -15908,7 +15908,7 @@
     <row r="1184">
       <c r="B1184" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1184">
@@ -15960,7 +15960,7 @@
     <row r="1188">
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1188">
@@ -15973,7 +15973,7 @@
     <row r="1189">
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1189">
@@ -15986,7 +15986,7 @@
     <row r="1190">
       <c r="B1190" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1190">
@@ -16129,7 +16129,7 @@
     <row r="1201">
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1201">
@@ -16142,7 +16142,7 @@
     <row r="1202">
       <c r="B1202" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1202">
@@ -16155,7 +16155,7 @@
     <row r="1203">
       <c r="B1203" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1203">
@@ -16181,7 +16181,7 @@
     <row r="1205">
       <c r="B1205" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1205">
@@ -16267,41 +16267,6 @@
       </c>
       <c r="D1211">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1213">
-      <c r="A1213" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="1214">
-      <c r="A1214" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1215">
-      <c r="A1215" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1216">
-      <c r="A1216" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1217">
-      <c r="A1217" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
       </c>
     </row>
   </sheetData>
